--- a/InputData/trans/P/Population.xlsx
+++ b/InputData/trans/P/Population.xlsx
@@ -647,7 +647,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Virginia</t>
+          <t>Minnesota</t>
         </is>
       </c>
       <c r="C1" s="38" t="n"/>
